--- a/paginas/llamados_formacion_interesados/aspirantes_Formacion_inicial.xlsx
+++ b/paginas/llamados_formacion_interesados/aspirantes_Formacion_inicial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>FOLIO DE REGISTRO</t>
   </si>
@@ -71,88 +71,118 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>NI20200002</t>
+    <t>NI20200004</t>
   </si>
   <si>
     <t>2020-09-01</t>
   </si>
   <si>
-    <t>ROVS930406MPLDGN09</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>SANDRA RODRIGUEZ VEGA</t>
+    <t>PEHG921005HPLRRB04</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>GABRIEL PEREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>1993-03-08</t>
+  </si>
+  <si>
+    <t>SÃ</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2021-04-05/2021-05-05</t>
+  </si>
+  <si>
+    <t>NI20200005</t>
+  </si>
+  <si>
+    <t>RAGE001211HPLMZDA0</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO RAMOS GUZMAN</t>
+  </si>
+  <si>
+    <t>1993-03-09</t>
+  </si>
+  <si>
+    <t>NI20200007</t>
+  </si>
+  <si>
+    <t>CAMV930125HPLMRC09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPOS </t>
+  </si>
+  <si>
+    <t>MAURNO</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>VICTOR CAMPOS  MAURNO</t>
+  </si>
+  <si>
+    <t>1993-03-11</t>
+  </si>
+  <si>
+    <t>NI20210348</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>MAHJ280603MSPRRV09</t>
+  </si>
+  <si>
+    <t>MARÃA</t>
+  </si>
+  <si>
+    <t>MARTÃNEZ</t>
+  </si>
+  <si>
+    <t>HERNÃNDEZ</t>
+  </si>
+  <si>
+    <t>HERNÃNDEZ MARÃA MARTÃNEZ</t>
   </si>
   <si>
     <t>FEMENINO</t>
   </si>
   <si>
-    <t>1993-03-06</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2021-04-05/2021-05-05</t>
-  </si>
-  <si>
-    <t>NI20200003</t>
-  </si>
-  <si>
-    <t>SARA960706MPLNMN09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDOVAL </t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ANA KAREN</t>
-  </si>
-  <si>
-    <t>ANA KAREN SANDOVAL  RAMOS</t>
-  </si>
-  <si>
-    <t>1993-03-07</t>
-  </si>
-  <si>
-    <t>NI20210348</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>OCVJIUFPOVRO48U984</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>CESAR SALINAS RAMIREZ</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
-  </si>
-  <si>
-    <t>1993-12-11</t>
+    <t>1994-08-03</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>2021-06-04/2021-06-30</t>
   </si>
 </sst>
 </file>
@@ -491,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,28 +694,28 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -696,6 +726,52 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
